--- a/data/trans_bre/P18_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,79</t>
+          <t>-36,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>23,21</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,7</t>
+          <t>-9,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>-64,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>50,4%</t>
+          <t>-12,96%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-16,42%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,46; 49,55</t>
+          <t>-55,88; -13,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 38,65</t>
+          <t>-32,89; 15,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 32,97</t>
+          <t>-30,41; 16,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 32,24</t>
+          <t>-33,83; 13,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,41; 150,24</t>
+          <t>-20,2; 25,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,6; 260,91</t>
+          <t>-82,83; -29,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 135,9</t>
+          <t>-48,71; 36,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 163,16</t>
+          <t>-46,68; 38,83</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-45,93; 32,49</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-29,74; 56,8</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,6</t>
+          <t>-41,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,57</t>
+          <t>-25,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>-20,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,15</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>115,36%</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>214,92%</t>
+          <t>-64,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,32%</t>
+          <t>-28,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>-27,7%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-9,09%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,68; 53,81</t>
+          <t>-62,6; -13,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 40,46</t>
+          <t>-42,29; -8,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 27,42</t>
+          <t>-40,23; 0,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 25,98</t>
+          <t>-29,17; 19,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,18; 276,55</t>
+          <t>-25,53; 33,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,98; 520,65</t>
+          <t>-78,68; -31,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 144,46</t>
+          <t>-46,03; -9,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 138,03</t>
+          <t>-48,57; 1,13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-37,89; 42,47</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-38,05; 133,56</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,38</t>
+          <t>-18,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,11</t>
+          <t>-17,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,68</t>
+          <t>-22,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,95</t>
+          <t>-20,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,96%</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,45%</t>
+          <t>-31,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>-24,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>-30,38%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-29,42%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-7,27%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 31,61</t>
+          <t>-33,29; -2,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 27,38</t>
+          <t>-31,87; -1,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 27,93</t>
+          <t>-37,04; -6,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 29,41</t>
+          <t>-36,02; -4,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 94,25</t>
+          <t>-22,4; 11,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 138,57</t>
+          <t>-50,34; -3,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 114,59</t>
+          <t>-39,66; -1,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 118,01</t>
+          <t>-45,94; -9,47</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-46,16; -8,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-29,84; 21,75</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,2</t>
+          <t>-24,17</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,44</t>
+          <t>-21,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>-18,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,72</t>
+          <t>-18,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>-14,31</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>82,47%</t>
+          <t>-39,11%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,97%</t>
+          <t>-27,67%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,79%</t>
+          <t>-27,13%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-26,99%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-22,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,44; 40,47</t>
+          <t>-38,52; -10,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 29,79</t>
+          <t>-33,97; -8,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 27,68</t>
+          <t>-33,43; -4,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,01; 31,2</t>
+          <t>-32,57; -4,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,83; 145,32</t>
+          <t>-29,72; -0,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,52; 168,5</t>
+          <t>-55,43; -18,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 99,63</t>
+          <t>-41,91; -11,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,82; 120,04</t>
+          <t>-45,2; -6,99</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-44,01; -7,89</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-40,65; -1,17</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,02</t>
+          <t>-13,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>-21,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,25</t>
+          <t>-27,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,39</t>
+          <t>-16,65</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>-19,48</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,37%</t>
+          <t>-22,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>67,15%</t>
+          <t>-30,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>65,88%</t>
+          <t>-39,09%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-28,19%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-30,03%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 33,39</t>
+          <t>-31,9; 3,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 30,21</t>
+          <t>-38,82; -4,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 33,87</t>
+          <t>-44,43; -9,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 36,36</t>
+          <t>-33,55; 1,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,62; 112,61</t>
+          <t>-36,39; -0,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 139,2</t>
+          <t>-46,88; 6,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,47; 134,32</t>
+          <t>-51,78; -6,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,94; 127,34</t>
+          <t>-59,8; -15,42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-52,43; 3,51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-52,21; -1,53</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,56</t>
+          <t>-30,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>38,43</t>
+          <t>-42,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,95</t>
+          <t>-31,44</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>35,17</t>
+          <t>-54,52</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>-32,77</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>241,52%</t>
+          <t>-44,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>115,99%</t>
+          <t>-48,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>180,8%</t>
+          <t>-39,13%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-61,28%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-40,34%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,03; 42,48</t>
+          <t>-51,75; -10,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,92; 51,96</t>
+          <t>-60,23; -22,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,01; 45,67</t>
+          <t>-51,7; -11,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,3; 52,16</t>
+          <t>-70,36; -35,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>31,78; 200,75</t>
+          <t>-52,25; -9,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>96,44; 522,61</t>
+          <t>-66,87; -17,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>35,72; 264,55</t>
+          <t>-67,39; -28,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,41; 403,43</t>
+          <t>-59,99; -16,31</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-76,31; -42,5</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-59,93; -12,2</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27,46</t>
+          <t>-27,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>-22,26</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,83</t>
+          <t>-20,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,12</t>
+          <t>-19,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>-9,38</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>-43,97%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>-29,57%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>-29,52%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-28,43%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-15,26%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,43; 33,06</t>
+          <t>-34,49; -18,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,91; 27,78</t>
+          <t>-29,48; -15,18</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,18; 23,99</t>
+          <t>-27,66; -11,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,35; 25,38</t>
+          <t>-26,54; -10,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,23; 98,43</t>
+          <t>-17,9; 3,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>57,32; 137,6</t>
+          <t>-52,58; -33,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>32,94; 84,99</t>
+          <t>-37,45; -21,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,77; 92,8</t>
+          <t>-37,82; -18,33</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-37,2; -16,88</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-26,93; 5,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
